--- a/高校学院教师网址1019.xlsx
+++ b/高校学院教师网址1019.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="3060" windowWidth="14805" windowHeight="8010" tabRatio="599"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">学校!$A$1:$G$639</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -17705,7 +17705,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -17948,7 +17948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17981,26 +17981,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -18033,23 +18016,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -18229,19 +18195,19 @@
   <dimension ref="A1:G1587"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E798" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E639" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F804" sqref="F804"/>
+      <selection pane="bottomRight" activeCell="J641" sqref="J641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="4" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="13" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="8" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9" style="8"/>
@@ -29143,6 +29109,9 @@
       </c>
       <c r="F642" s="8" t="s">
         <v>4241</v>
+      </c>
+      <c r="G642" s="8">
+        <v>1345435345345</v>
       </c>
     </row>
     <row r="643" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
